--- a/outcome/simulate data/B_HAV.xlsx
+++ b/outcome/simulate data/B_HAV.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>1403.06664462998</v>
+        <v>1380.40303081201</v>
       </c>
       <c r="C2" t="n">
-        <v>291.276600475321</v>
+        <v>593.254246430635</v>
       </c>
       <c r="D2" t="n">
-        <v>-297.269497511382</v>
+        <v>176.562850408213</v>
       </c>
       <c r="E2" t="n">
-        <v>2514.85668878465</v>
+        <v>2167.55181519339</v>
       </c>
       <c r="F2" t="n">
-        <v>3103.40278677135</v>
+        <v>2584.24321121581</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -442,19 +442,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>1496.07628820334</v>
+        <v>1478.99495109704</v>
       </c>
       <c r="C3" t="n">
-        <v>297.863074291651</v>
+        <v>620.360645556784</v>
       </c>
       <c r="D3" t="n">
-        <v>-336.432686235713</v>
+        <v>165.82710050469</v>
       </c>
       <c r="E3" t="n">
-        <v>2694.28950211504</v>
+        <v>2337.6292566373</v>
       </c>
       <c r="F3" t="n">
-        <v>3328.5852626424</v>
+        <v>2792.1628016894</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -472,19 +472,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>1576.11726274024</v>
+        <v>1539.8395692386</v>
       </c>
       <c r="C4" t="n">
-        <v>300.461641346385</v>
+        <v>630.165613767741</v>
       </c>
       <c r="D4" t="n">
-        <v>-374.829653348562</v>
+        <v>148.613310122518</v>
       </c>
       <c r="E4" t="n">
-        <v>2851.77288413409</v>
+        <v>2449.51352470945</v>
       </c>
       <c r="F4" t="n">
-        <v>3527.06417882903</v>
+        <v>2931.06582835467</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -502,19 +502,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>1481.44261380826</v>
+        <v>1407.02409090065</v>
       </c>
       <c r="C5" t="n">
-        <v>269.936748246173</v>
+        <v>561.605282194454</v>
       </c>
       <c r="D5" t="n">
-        <v>-371.39571700963</v>
+        <v>114.067598578195</v>
       </c>
       <c r="E5" t="n">
-        <v>2692.94847937034</v>
+        <v>2252.44289960684</v>
       </c>
       <c r="F5" t="n">
-        <v>3334.28094462614</v>
+        <v>2699.9805832231</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -532,19 +532,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>1442.27754522782</v>
+        <v>1345.18772349491</v>
       </c>
       <c r="C6" t="n">
-        <v>250.709317070644</v>
+        <v>523.481125015765</v>
       </c>
       <c r="D6" t="n">
-        <v>-380.068800483068</v>
+        <v>88.4959272552144</v>
       </c>
       <c r="E6" t="n">
-        <v>2633.845773385</v>
+        <v>2166.89432197405</v>
       </c>
       <c r="F6" t="n">
-        <v>3264.62389093871</v>
+        <v>2601.8795197346</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -562,19 +562,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>1396.86701806207</v>
+        <v>1310.19417753639</v>
       </c>
       <c r="C7" t="n">
-        <v>231.157281436644</v>
+        <v>496.900260796201</v>
       </c>
       <c r="D7" t="n">
-        <v>-385.932177569668</v>
+        <v>66.3684677383633</v>
       </c>
       <c r="E7" t="n">
-        <v>2562.5767546875</v>
+        <v>2123.48809427657</v>
       </c>
       <c r="F7" t="n">
-        <v>3179.66621369382</v>
+        <v>2554.01988733441</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -592,19 +592,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>1275.14963074296</v>
+        <v>1231.05597723644</v>
       </c>
       <c r="C8" t="n">
-        <v>200.418388846444</v>
+        <v>454.822702216119</v>
       </c>
       <c r="D8" t="n">
-        <v>-368.5099642434</v>
+        <v>43.9096278073521</v>
       </c>
       <c r="E8" t="n">
-        <v>2349.88087263947</v>
+        <v>2007.28925225676</v>
       </c>
       <c r="F8" t="n">
-        <v>2918.80922572932</v>
+        <v>2418.20232666553</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -622,19 +622,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>1216.85839019595</v>
+        <v>1210.76829102628</v>
       </c>
       <c r="C9" t="n">
-        <v>181.183822583618</v>
+        <v>435.567742121611</v>
       </c>
       <c r="D9" t="n">
-        <v>-367.06917604416</v>
+        <v>25.2013598952853</v>
       </c>
       <c r="E9" t="n">
-        <v>2252.53295780828</v>
+        <v>1985.96883993096</v>
       </c>
       <c r="F9" t="n">
-        <v>2800.78595643606</v>
+        <v>2396.33522215728</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -652,19 +652,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>1198.1587275122</v>
+        <v>1158.43609622364</v>
       </c>
       <c r="C10" t="n">
-        <v>168.523902819261</v>
+        <v>405.593531964939</v>
       </c>
       <c r="D10" t="n">
-        <v>-376.531849038106</v>
+        <v>7.06275187537835</v>
       </c>
       <c r="E10" t="n">
-        <v>2227.79355220514</v>
+        <v>1911.27866048235</v>
       </c>
       <c r="F10" t="n">
-        <v>2772.84930406251</v>
+        <v>2309.80944057191</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -682,19 +682,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>1509.29838554296</v>
+        <v>1471.83982336644</v>
       </c>
       <c r="C11" t="n">
-        <v>199.89472170973</v>
+        <v>501.280250835014</v>
       </c>
       <c r="D11" t="n">
-        <v>-493.261707501229</v>
+        <v>-12.5029515603021</v>
       </c>
       <c r="E11" t="n">
-        <v>2818.70204937618</v>
+        <v>2442.39939589786</v>
       </c>
       <c r="F11" t="n">
-        <v>3511.85847858714</v>
+        <v>2956.18259829318</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -712,19 +712,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>1422.46387375541</v>
+        <v>1357.59940371381</v>
       </c>
       <c r="C12" t="n">
-        <v>176.759377891974</v>
+        <v>449.526471426856</v>
       </c>
       <c r="D12" t="n">
-        <v>-482.676748685655</v>
+        <v>-31.1783017402643</v>
       </c>
       <c r="E12" t="n">
-        <v>2668.16836961885</v>
+        <v>2265.67233600076</v>
       </c>
       <c r="F12" t="n">
-        <v>3327.60449619648</v>
+        <v>2746.37710916788</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -742,19 +742,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>1446.61172830409</v>
+        <v>1367.91123448732</v>
       </c>
       <c r="C13" t="n">
-        <v>167.970868158183</v>
+        <v>440.100980214892</v>
       </c>
       <c r="D13" t="n">
-        <v>-508.900716473988</v>
+        <v>-51.0521000767014</v>
       </c>
       <c r="E13" t="n">
-        <v>2725.25258845</v>
+        <v>2295.72148875975</v>
       </c>
       <c r="F13" t="n">
-        <v>3402.12417308218</v>
+        <v>2786.87456905134</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -772,19 +772,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>1400.73036891285</v>
+        <v>1368.28364568628</v>
       </c>
       <c r="C14" t="n">
-        <v>151.268387758343</v>
+        <v>427.47647497673</v>
       </c>
       <c r="D14" t="n">
-        <v>-510.156831380354</v>
+        <v>-70.5567572780355</v>
       </c>
       <c r="E14" t="n">
-        <v>2650.19235006735</v>
+        <v>2309.09081639583</v>
       </c>
       <c r="F14" t="n">
-        <v>3311.61756920605</v>
+        <v>2807.12404865059</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -802,19 +802,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>1493.67069612673</v>
+        <v>1466.33012047977</v>
       </c>
       <c r="C15" t="n">
-        <v>149.216800834024</v>
+        <v>444.552326680645</v>
       </c>
       <c r="D15" t="n">
-        <v>-562.494100120463</v>
+        <v>-96.3441642635401</v>
       </c>
       <c r="E15" t="n">
-        <v>2838.12459141943</v>
+        <v>2488.1079142789</v>
       </c>
       <c r="F15" t="n">
-        <v>3549.83549237392</v>
+        <v>3029.00440522308</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -832,19 +832,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>1573.67002316616</v>
+        <v>1526.97909003497</v>
       </c>
       <c r="C16" t="n">
-        <v>144.514774323355</v>
+        <v>448.925057088602</v>
       </c>
       <c r="D16" t="n">
-        <v>-612.034314729864</v>
+        <v>-121.762275331108</v>
       </c>
       <c r="E16" t="n">
-        <v>3002.82527200896</v>
+        <v>2605.03312298134</v>
       </c>
       <c r="F16" t="n">
-        <v>3759.37436106218</v>
+        <v>3175.72045540105</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -862,19 +862,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>1479.22140261539</v>
+        <v>1395.56306814835</v>
       </c>
       <c r="C17" t="n">
-        <v>123.947253527152</v>
+        <v>397.570484644154</v>
       </c>
       <c r="D17" t="n">
-        <v>-593.491543790564</v>
+        <v>-130.734876542686</v>
       </c>
       <c r="E17" t="n">
-        <v>2834.49555170362</v>
+        <v>2393.55565165254</v>
       </c>
       <c r="F17" t="n">
-        <v>3551.93434902134</v>
+        <v>2921.86101283938</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -892,19 +892,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>1440.18936327786</v>
+        <v>1334.5012036957</v>
       </c>
       <c r="C18" t="n">
-        <v>109.132161917165</v>
+        <v>368.094962475256</v>
       </c>
       <c r="D18" t="n">
-        <v>-595.486957651924</v>
+        <v>-143.489599133901</v>
       </c>
       <c r="E18" t="n">
-        <v>2771.24656463855</v>
+        <v>2300.90744491614</v>
       </c>
       <c r="F18" t="n">
-        <v>3475.86568420764</v>
+        <v>2812.4920065253</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -922,19 +922,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>1394.91408876715</v>
+        <v>1300.04309823606</v>
       </c>
       <c r="C19" t="n">
-        <v>94.5530680359311</v>
+        <v>346.899257405954</v>
       </c>
       <c r="D19" t="n">
-        <v>-593.816475070807</v>
+        <v>-157.664613524503</v>
       </c>
       <c r="E19" t="n">
-        <v>2695.27510949836</v>
+        <v>2253.18693906617</v>
       </c>
       <c r="F19" t="n">
-        <v>3383.6446526051</v>
+        <v>2757.75080999663</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -952,19 +952,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>1273.42815018789</v>
+        <v>1221.75412770708</v>
       </c>
       <c r="C20" t="n">
-        <v>76.1701394992897</v>
+        <v>315.091470639123</v>
       </c>
       <c r="D20" t="n">
-        <v>-557.619966986025</v>
+        <v>-164.866747923027</v>
       </c>
       <c r="E20" t="n">
-        <v>2470.68616087648</v>
+        <v>2128.41678477504</v>
       </c>
       <c r="F20" t="n">
-        <v>3104.4762673618</v>
+        <v>2608.37500333719</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -982,19 +982,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>1215.2720812124</v>
+        <v>1201.8463567611</v>
       </c>
       <c r="C21" t="n">
-        <v>63.0313850405255</v>
+        <v>299.28039634862</v>
       </c>
       <c r="D21" t="n">
-        <v>-546.927994645287</v>
+        <v>-178.509162003004</v>
       </c>
       <c r="E21" t="n">
-        <v>2367.51277738427</v>
+        <v>2104.41231717359</v>
       </c>
       <c r="F21" t="n">
-        <v>2977.47215707009</v>
+        <v>2582.20187552521</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1012,19 +1012,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>1196.65049982293</v>
+        <v>1150.11138473435</v>
       </c>
       <c r="C22" t="n">
-        <v>52.5813009012486</v>
+        <v>276.244280204374</v>
       </c>
       <c r="D22" t="n">
-        <v>-553.052349437918</v>
+        <v>-186.353021538069</v>
       </c>
       <c r="E22" t="n">
-        <v>2340.71969874462</v>
+        <v>2023.97848926433</v>
       </c>
       <c r="F22" t="n">
-        <v>2946.35334908378</v>
+        <v>2486.57579100677</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1042,19 +1042,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>1507.46383276382</v>
+        <v>1461.52530013184</v>
       </c>
       <c r="C23" t="n">
-        <v>54.3218341570205</v>
+        <v>338.214618723955</v>
       </c>
       <c r="D23" t="n">
-        <v>-714.925073203894</v>
+        <v>-256.430136232517</v>
       </c>
       <c r="E23" t="n">
-        <v>2960.60583137061</v>
+        <v>2584.83598153972</v>
       </c>
       <c r="F23" t="n">
-        <v>3729.85273873152</v>
+        <v>3179.4807364962</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1072,19 +1072,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>1420.79433428287</v>
+        <v>1348.32161880436</v>
       </c>
       <c r="C24" t="n">
-        <v>39.9951421253163</v>
+        <v>300.249847573622</v>
       </c>
       <c r="D24" t="n">
-        <v>-690.955796786374</v>
+        <v>-254.565834227948</v>
       </c>
       <c r="E24" t="n">
-        <v>2801.59352644042</v>
+        <v>2396.39339003511</v>
       </c>
       <c r="F24" t="n">
-        <v>3532.54446535211</v>
+        <v>2951.20907183668</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1102,19 +1102,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>1444.97225021299</v>
+        <v>1358.79517058788</v>
       </c>
       <c r="C25" t="n">
-        <v>29.3090159752323</v>
+        <v>290.78702821422</v>
       </c>
       <c r="D25" t="n">
-        <v>-720.097831976327</v>
+        <v>-274.582330970832</v>
       </c>
       <c r="E25" t="n">
-        <v>2860.63548445075</v>
+        <v>2426.80331296153</v>
       </c>
       <c r="F25" t="n">
-        <v>3610.04233240231</v>
+        <v>2992.17267214658</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1132,19 +1132,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>1399.19750264482</v>
+        <v>1359.39173138687</v>
       </c>
       <c r="C26" t="n">
-        <v>17.3994723352298</v>
+        <v>279.176522365053</v>
       </c>
       <c r="D26" t="n">
-        <v>-714.080219554588</v>
+        <v>-292.654867561694</v>
       </c>
       <c r="E26" t="n">
-        <v>2780.9955329544</v>
+        <v>2439.60694040868</v>
       </c>
       <c r="F26" t="n">
-        <v>3512.47522484422</v>
+        <v>3011.43833033543</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1162,19 +1162,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>1492.09236320234</v>
+        <v>1457.03802528331</v>
       </c>
       <c r="C27" t="n">
-        <v>6.87074982103695</v>
+        <v>286.712925302718</v>
       </c>
       <c r="D27" t="n">
-        <v>-779.358079800935</v>
+        <v>-332.819759479675</v>
       </c>
       <c r="E27" t="n">
-        <v>2977.31397658364</v>
+        <v>2627.36312526389</v>
       </c>
       <c r="F27" t="n">
-        <v>3763.54280620561</v>
+        <v>3246.89581004629</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1192,19 +1192,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>1572.06437846307</v>
+        <v>1517.54345817576</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.04456346374195</v>
+        <v>285.646761902828</v>
       </c>
       <c r="D28" t="n">
-        <v>-839.915606563169</v>
+        <v>-366.479957099603</v>
       </c>
       <c r="E28" t="n">
-        <v>3149.17332038987</v>
+        <v>2749.4401544487</v>
       </c>
       <c r="F28" t="n">
-        <v>3984.0443634893</v>
+        <v>3401.56687345113</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1222,19 +1222,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>1477.76406887937</v>
+        <v>1387.15421492073</v>
       </c>
       <c r="C29" t="n">
-        <v>-16.2647144520945</v>
+        <v>249.302921978622</v>
       </c>
       <c r="D29" t="n">
-        <v>-807.155778221355</v>
+        <v>-353.039167763139</v>
       </c>
       <c r="E29" t="n">
-        <v>2971.79285221083</v>
+        <v>2525.00550786284</v>
       </c>
       <c r="F29" t="n">
-        <v>3762.68391598009</v>
+        <v>3127.3475976046</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1252,19 +1252,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>1438.81932226481</v>
+        <v>1326.66060471969</v>
       </c>
       <c r="C30" t="n">
-        <v>-27.0327272483437</v>
+        <v>227.197402396149</v>
       </c>
       <c r="D30" t="n">
-        <v>-803.007929133463</v>
+        <v>-354.823259697014</v>
       </c>
       <c r="E30" t="n">
-        <v>2904.67137177797</v>
+        <v>2426.12380704323</v>
       </c>
       <c r="F30" t="n">
-        <v>3680.64657366309</v>
+        <v>3008.14446913639</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1282,19 +1282,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>1393.63279806207</v>
+        <v>1292.59535484422</v>
       </c>
       <c r="C31" t="n">
-        <v>-37.0079178969979</v>
+        <v>210.468074457536</v>
       </c>
       <c r="D31" t="n">
-        <v>-794.343365741214</v>
+        <v>-362.375504908018</v>
       </c>
       <c r="E31" t="n">
-        <v>2824.27351402113</v>
+        <v>2374.7226352309</v>
       </c>
       <c r="F31" t="n">
-        <v>3581.60896186535</v>
+        <v>2947.56621459645</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1312,19 +1312,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>1272.29872087262</v>
+        <v>1214.92946299743</v>
       </c>
       <c r="C32" t="n">
-        <v>-43.6493997335965</v>
+        <v>187.626195485872</v>
       </c>
       <c r="D32" t="n">
-        <v>-740.270255089972</v>
+        <v>-356.195304555202</v>
       </c>
       <c r="E32" t="n">
-        <v>2588.24684147883</v>
+        <v>2242.23273050899</v>
       </c>
       <c r="F32" t="n">
-        <v>3284.86769683521</v>
+        <v>2786.05423055007</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1342,19 +1342,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>1214.23134576681</v>
+        <v>1195.30043904288</v>
       </c>
       <c r="C33" t="n">
-        <v>-51.0562124094847</v>
+        <v>174.603299492896</v>
       </c>
       <c r="D33" t="n">
-        <v>-720.858985973615</v>
+        <v>-365.721127647562</v>
       </c>
       <c r="E33" t="n">
-        <v>2479.5189039431</v>
+        <v>2215.99757859286</v>
       </c>
       <c r="F33" t="n">
-        <v>3149.32167750723</v>
+        <v>2756.32200573332</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1372,19 +1372,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>1195.66100177081</v>
+        <v>1144.00364933532</v>
       </c>
       <c r="C34" t="n">
-        <v>-59.5124958931044</v>
+        <v>157.589943460788</v>
       </c>
       <c r="D34" t="n">
-        <v>-723.96120923637</v>
+        <v>-364.585930163332</v>
       </c>
       <c r="E34" t="n">
-        <v>2450.83449943472</v>
+        <v>2130.41735520986</v>
       </c>
       <c r="F34" t="n">
-        <v>3115.28321277798</v>
+        <v>2652.59322883398</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1402,19 +1402,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>1506.26025666639</v>
+        <v>1453.95767398813</v>
       </c>
       <c r="C35" t="n">
-        <v>-86.5898275279062</v>
+        <v>188.23602157107</v>
       </c>
       <c r="D35" t="n">
-        <v>-929.793727993786</v>
+        <v>-481.796547603218</v>
       </c>
       <c r="E35" t="n">
-        <v>3099.11034086068</v>
+        <v>2719.67932640519</v>
       </c>
       <c r="F35" t="n">
-        <v>3942.31424132656</v>
+        <v>3389.71189557948</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1432,19 +1432,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>1419.69902901422</v>
+        <v>1341.51464178973</v>
       </c>
       <c r="C36" t="n">
-        <v>-92.5465627465139</v>
+        <v>162.602874681771</v>
       </c>
       <c r="D36" t="n">
-        <v>-893.081022384616</v>
+        <v>-461.475317104479</v>
       </c>
       <c r="E36" t="n">
-        <v>2931.94462077496</v>
+        <v>2520.42640889768</v>
       </c>
       <c r="F36" t="n">
-        <v>3732.47908041306</v>
+        <v>3144.50460068393</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1462,19 +1462,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>1443.89667924628</v>
+        <v>1352.10685426135</v>
       </c>
       <c r="C37" t="n">
-        <v>-105.226445075402</v>
+        <v>152.765701529733</v>
       </c>
       <c r="D37" t="n">
-        <v>-925.282691229073</v>
+        <v>-482.127153741127</v>
       </c>
       <c r="E37" t="n">
-        <v>2993.01980356796</v>
+        <v>2551.44800699297</v>
       </c>
       <c r="F37" t="n">
-        <v>3813.07604972163</v>
+        <v>3186.34086226383</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
